--- a/public/pays_export.xlsx
+++ b/public/pays_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -35,10 +35,22 @@
     <t>Langue</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\-- Symfony 5\Pidev/public/assets/BACK/img/Pays/65e978f546d09.jpg</t>
+  </si>
+  <si>
+    <t>La France, pays de l'Europe occidentale, compte des villes médiévales, des villages alpins et des plages. Paris, sa capitale, est célèbre pour ses maisons de mode, ses musées d'art classique, dont celui du Louvre, et ses monuments comme la Tour Eiffel. Le pays est également réputé pour ses vins et sa cuisine raffinée. Les peintures rupestres des grottes de Lascaux, le théâtre romain de Lyon et l'immense château de Versailles témoignent de sa riche histoire.</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
     <t>Italie</t>
   </si>
   <si>
-    <t>C:\xampp\htdocs\-- Symfony 5\Pidev/public/assets/BACK/img/Pays/65e76ab6de2f8.jpg</t>
+    <t>C:\xampp\htdocs\-- Symfony 5\Pidev/public/assets/BACK/img/Pays/65e97972873c7.jpg</t>
   </si>
   <si>
     <t>L'Italie, pays européen bordé par la Méditerranée et l'Adriatique, a laissé une forte empreinte sur la culture et la cuisine occidentales. Sa capitale, Rome, abrite le Vatican ainsi que des trésors artistiques et des ruines antiques. Les autres grandes villes comprennent Florence, avec des chefs-d'œuvre de la Renaissance comme le David de Michel-Ange et le dôme de Brunelleschi, Venise, la ville des canaux, et Milan, la capitale italienne de la mode.</t>
@@ -50,7 +62,7 @@
     <t>Espagne</t>
   </si>
   <si>
-    <t>C:\xampp\htdocs\-- Symfony 5\Pidev/public/assets/BACK/img/Pays/65e76b1f0826c.jpg</t>
+    <t>C:\xampp\htdocs\-- Symfony 5\Pidev/public/assets/BACK/img/Pays/65e979966721b.jpg</t>
   </si>
   <si>
     <t>L'Espagne est un pays européen situé sur la péninsule ibérique et comprenant 17 régions autonomes à la géographie et aux cultures diverses. Madrid, la capitale, abrite le palais royal et le musée du Prado, où sont exposées les œuvres d'artistes européens. On peut admirer à Ségovie un château médiéval (l'Alcazar) et un aqueduc romain intact. La capitale de la Catalogne, Barcelone, se caractérise par les monuments modernistes d'Antoni Gaudí, notamment la Sagrada Família.</t>
@@ -59,16 +71,28 @@
     <t>espagnol</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>C:\xampp\htdocs\-- Symfony 5\Pidev/public/assets/BACK/img/Pays/65e76b5c2b3d9.jpg</t>
-  </si>
-  <si>
-    <t>La France, pays de l'Europe occidentale, compte des villes médiévales, des villages alpins et des plages. Paris, sa capitale, est célèbre pour ses maisons de mode, ses musées d'art classique, dont celui du Louvre, et ses monuments comme la Tour Eiffel. Le pays est également réputé pour ses vins et sa cuisine raffinée. Les peintures rupestres des grottes de Lascaux, le théâtre romain de Lyon et l'immense château de Versailles témoignent de sa riche histoire.</t>
-  </si>
-  <si>
-    <t>francais</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\-- Symfony 5\Pidev/public/assets/BACK/img/Pays/65e979be8842e.jpg</t>
+  </si>
+  <si>
+    <t>La Tunisie est un pays d'Afrique du Nord situé sur la côte méditerranéenne et en bordure du désert du Sahara. Le musée national du Bardo à Tunis, la capitale, expose des pièces archéologiques allant des mosaïques romaines à l'art islamique. Le quartier de la Médina, avec son souk animé, encercle l'imposante mosquée Zitouna. À l'est, sur le site de l'ancienne cité de Carthage, se trouvent les thermes d'Antonin et d'autres ruines, et le musée national de Carthage et ses nombreux objets.</t>
+  </si>
+  <si>
+    <t>Arabe</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\-- Symfony 5\Pidev/public/assets/BACK/img/Pays/65e979ef30c33.jpg</t>
+  </si>
+  <si>
+    <t>L'Allemagne est un pays d'Europe de l'Ouest dont le paysage se compose de forêts, de rivières, de chaînes montagneuses et de plages sur la mer du Nord. Son histoire remonte à plus de 2 000 ans en arrière. Dotée d'une vie artistique et nocturne animée, Berlin, sa capitale, inclut la porte de Brandebourg et de nombreux sites en lien avec la Seconde Guerre mondiale. Munich est connue pour son Oktoberfest et ses bars à bières, notamment l'Hofbräuhaus qui date du XVIe siècle. Francfort, avec ses gratte-ciel, abrite la Banque centrale européenne.</t>
+  </si>
+  <si>
+    <t>allemand</t>
   </si>
 </sst>
 </file>
@@ -408,7 +432,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +462,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -450,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -458,7 +482,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -470,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -478,7 +502,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -490,10 +514,50 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
